--- a/assets/Database/requests.xlsx
+++ b/assets/Database/requests.xlsx
@@ -6,10 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="requests" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Patient" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Nurse" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Admin" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -444,10 +446,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -468,26 +470,74 @@
           <t>password</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="30.44140625" customWidth="1" min="1" max="1"/>
+    <col width="23.88671875" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="26.21875" customWidth="1" min="1" max="1"/>
+    <col width="38.6640625" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>abdo</t>
+          <t>username</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
-          <t>hesham69</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Patient</t>
+          <t>password</t>
         </is>
       </c>
     </row>
